--- a/InterviewQuestions.xlsx
+++ b/InterviewQuestions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="772">
   <si>
     <t xml:space="preserve">Interview Questions</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">What are the differences between null and undefined?</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.thatjsdude.com/interview/js2.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">What are the differences between == and ===?</t>
   </si>
   <si>
@@ -107,6 +110,2256 @@
   </si>
   <si>
     <t xml:space="preserve">How would you implement currying for any functions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is ReactJS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the advantages and disadvantages of ReactJS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is JSX?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the differences between Props and State?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are some lifecycle methods in a React component?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is virtual DOM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the differences between Stateless Components and Stateful Components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Babel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Higher Order Component?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are ECMAScript, ES1, 2, 3, 4, 5, 6, 7, 8,…n? ES5 vs ES6?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is ReactDOMServer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is create-react-app and benefits of it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is React Router?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Shallow Renderer in ReactJS testing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is JEST?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Redux? Explain the Three Principles of Redux.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Webpack?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is TypeScript?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the popular React-specific linting tools?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yarn vs NPM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/fantageek/20-reactjs-questions-and-answers-part-1-45fe5bc0a929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAR Behavioral Interview Practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give me an example of a time you faced a conflict while working on a team. How did you handle that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.themuse.com/advice/behavioral-interview-questions-answers-examples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time you needed to get information from someone who wasn’t very responsive. What did you do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a time when it was especially important to make a good impression on a client. How did you go about doing so?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a time when your team or company was undergoing some change. How did that impact you, and how did you adapt?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time you failed. How did you deal with the situation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give me an example of a time you managed numerous responsibilities. How did you handle that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give me an example of a time when you were able to successfully persuade someone to see things your way at work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a successful presentation you gave and why you think it was a hit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about your proudest professional accomplishment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time when you worked under either extremely close supervision or extremely loose supervision. How did you handle that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time when you had to work closely with someone whose personality was very different from yours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give me an example of a time you faced a conflict with a coworker. How did you handle that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a time when you had to step up and demonstrate leadership skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time you made a mistake and wish you’d handled a situation with a colleague differently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give me an example of a time when you didn’t meet a client’s expectation. What happened, and how did you attempt to rectify the situation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time when you made sure a customer was pleased with your service.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a time when you had to interact with a difficult client or customer. What was the situation, and how did you handle it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you’re working with a large number of customers, it’s tricky to deliver excellent service to them all. How do you go about prioritizing your customers’ needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time you were under a lot of pressure at work or at school. What was going on, and how did you get through it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about settling into your last job. What did you do to learn the ropes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give me an example of a time when you had to think on your feet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a long-term project that you kept on track. How did you keep everything moving?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time your responsibilities got a little overwhelming. What did you do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time you set a goal for yourself. How did you go about ensuring that you would meet your objective?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time an unexpected problem derailed your planning. How did you recover?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Tell me about a time when you had to rely on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">written communication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to get your ideas across.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Give me an example of a time when you were able to successfully persuade someone at work to see things your way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a time when you were the resident technical expert. What did you do to make sure everyone was able to understand you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give me an example of a time when you had to have a difficult conversation with a frustrated client or colleague. How did you handle the situation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe a time when you saw a problem and took the initiative to correct it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give me an example of a time you were able to be creative with your work. What was exciting or difficult about it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me about a time you were dissatisfied in your role. What could have been done to make it better?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the major features of React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-major-features-of-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-JSX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between Element and Component?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-Element-and-Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to create components in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-create-components-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When to use a Class Component over a Function Component?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#When-to-use-a-Class-Component-over-a-Function-Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are Pure Components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-Pure-Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is state in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-state-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are props in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-props-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between state and props?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-state-and-props</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why should we not update the state directly?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-should-we-not-update-the-state-directly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of callback function as an argument of setState()?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-purpose-of-callback-function-as-an-argument-of-setState()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between HTML and React event handling?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-HTML-and-React-event-handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to bind methods or event handlers in JSX callbacks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-bind-methods-or-event-handlers-in-JSX-callbacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to pass a parameter to an event handler or callback?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-pass-a-parameter-to-an-event-handler-or-callback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are synthetic events in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-synthetic-events-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are inline conditional expressions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-inline-conditional-expressions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is "key" prop and what is the benefit of using it in arrays of elements?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-"key"-prop-and-what-is-the-benefit-of-using-it-in-arrays-of-elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the use of refs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-use-of-refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to create refs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-create-refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are forward refs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-forward-refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which is preferred option with in callback refs and findDOMNode()?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Which-is-preferred-option-with-in-callback-refs-and-findDOMNode()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why are String Refs legacy?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-are-String-Refs-legacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Virtual DOM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-Virtual-DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How Virtual DOM works?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-Virtual-DOM-works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between Shadow DOM and Virtual DOM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-Shadow-DOM-and-Virtual-DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is React Fiber?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-React-Fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the main goal of React Fiber?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-main-goal-of-React-Fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are controlled components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-controlled-components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are uncontrolled components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-uncontrolled-components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between createElement and cloneElement?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-createElement-and-cloneElement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Lifting State Up in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-Lifting-State-Up-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the different phases of component lifecycle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-different-phases-of-component-lifecycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the lifecycle methods of React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-lifecycle-methods-of-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are Higher-Order components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-Higher-Order-components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to create props proxy for HOC component?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-create-props-proxy-for-HOC-component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is context?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is children prop?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-children-prop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to write comments in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-write-comments-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of using super constructor with props argument?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-purpose-of-using-super-constructor-with-props-argument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is reconciliation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-reconciliation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to set state with a dynamic key name?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-set-state-with-a-dynamic-key-name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What would be the common mistake of function being called every time the component renders?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-would-be-the-common-mistake-of-function-being-called-every-time-the-component-renders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is lazy function supports named exports?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Is-lazy-function-supports-named-exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why React uses className over class attribute?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-React-uses-className-over-class-attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are fragments?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-fragments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why fragments are better than container divs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-fragments-are-better-than-container-divs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are portals in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-portals-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are stateless components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-stateless-components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are stateful components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-stateful-components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to apply validation on props in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-apply-validation-on-props-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the advantages of React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-advantages-of-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the limitations of React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-limitations-of-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are error boundaries in React v16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-error-boundaries-in-React-v16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How are error boundaries handled in React v15?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-are-error-boundaries-handled-in-React-v15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the recommended ways for static type checking?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-recommended-ways-for-static-type-checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the use of react-dom package?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-use-of-react-dom-package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of render method of react-dom?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-purpose-of-render-method-of-react-dom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-ReactDOMServer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to use InnerHtml in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-use-InnerHtml-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to use styles in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-use-styles-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How events are different in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-events-are-different-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What will happen if you use setState in constructor?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-will-happen-if-you-use-setState-in-constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the impact of indexes as keys?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-impact-of-indexes-as-keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it good to use setState() in componentWillMount() method?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Is-it-good-to-use-setState()-in-componentWillMount()-method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What will happen if you use props in initial state?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-will-happen-if-you-use-props-in-initial-state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you conditionally render components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-conditionally-render-components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why we need to be careful when spreading props on DOM elements??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-we-need-to-be-careful-when-spreading-props-on-DOM-elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How you use decorators in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-you-use-decorators-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you memoize a component?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-memoize-a-component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How you implement Server-Side Rendering or SSR?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-you-implement-Server-Side-Rendering-or-SSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to enable production mode in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-enable-production-mode-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is CRA and its benefits?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-CRA-and-its-benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the lifecycle methods order in mounting?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-lifecycle-methods-order-in-mounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the lifecycle methods going to be deprecated in React v16?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-lifecycle-methods-going-to-be-deprecated-in-React-v16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of getDerivedStateFromProps() lifecycle method?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-purpose-of-getDerivedStateFromProps()-lifecycle-method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of getSnapshotBeforeUpdate() lifecycle method?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-purpose-of-getSnapshotBeforeUpdate()-lifecycle-method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do Hooks replace render props and higher order components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Do-Hooks-replace-render-props-and-higher-order-components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the recommended way for naming components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-recommended-way-for-naming-components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the recommended ordering of methods in component class?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-recommended-ordering-of-methods-in-component-class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a switching component?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-a-switching-component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why we need to pass a function to setState()?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-we-need-to-pass-a-function-to-setState()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are React Mixins?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-React-Mixins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is isMounted() an anti-pattern and what is the proper solution?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-is-isMounted()-an-anti-pattern-and-what-is-the-proper-solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the Pointer Events supported in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-Pointer-Events-supported-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why should component names start with capital letter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-should-component-names-start-with-capital-letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are custom DOM attributes supported in React v16?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Are-custom-DOM-attributes-supported-in-React-v16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between constructor and getInitialState?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-constructor-and-getInitialState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you force a component to re-render without calling setState?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Can-you-force-a-component-to-re-render-without-calling-setState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between super() and super(props) in React using ES6 classes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-super()-and-super(props)-in-React-using-ES6-classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to loop inside JSX?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-loop-inside-JSX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you access props in attribute quotes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-access-props-in-attribute-quotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is React PropType array with shape?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-React-PropType-array-with-shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to conditionally apply class attributes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-conditionally-apply-class-attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between React and ReactDOM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-React-and-ReactDOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why ReactDOM is separated from React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-ReactDOM-is-separated-from-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to use React label element?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-use-React-label-element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to combine multiple inline style objects?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-combine-multiple-inline-style-objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to re-render the view when the browser is resized?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-re-render-the-view-when-the-browser-is-resized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between setState and replaceState methods?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-setState-and-replaceState-methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to listen to state changes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-listen-to-state-changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the recommended approach of removing an array element in react state?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-recommended-approach-of-removing-an-array-element-in-react-state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it possible to use React without rendering HTML?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Is-it-possible-to-use-React-without-rendering-HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to pretty print JSON with React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-pretty-print-JSON-with-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why you can't update props in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-you-can't-update-props-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to focus an input element on page load?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-focus-an-input-element-on-page-load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the possible ways of updating objects in state?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-possible-ways-of-updating-objects-in-state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can we find the version of React at runtime in the browser?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-can-we-find-the-version-of-React-at-runtime-in-the-browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the approaches to include polyfills in your create-react-app?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-approaches-to-include-polyfills-in-your-create-react-app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to use https instead of http in create-react-app?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-use-https-instead-of-http-in-create-react-app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to avoid using relative path imports in create-react-app?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-avoid-using-relative-path-imports-in-create-react-app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to add Google Analytics for react-router?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-add-Google-Analytics-for-react-router</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to update a component every second?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-update-a-component-every-second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you apply vendor prefixes to inline styles in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-apply-vendor-prefixes-to-inline-styles-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to import and export components using react and ES6?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-import-and-export-components-using-react-and-ES6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the exceptions on React component naming?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-exceptions-on-React-component-naming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is a component constructor called only once?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-is-a-component-constructor-called-only-once</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to define constants in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-define-constants-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to programmatically trigger click event in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-programmatically-trigger-click-event-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it possible to use async/await in plain React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Is-it-possible-to-use-async/await-in-plain-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the common folder structures for React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-common-folder-structures-for-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the popular packages for animation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-popular-packages-for-animation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the benefit of styles modules?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-benefit-of-styles-modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the popular React-specific linters?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-popular-React-specific-linters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to make AJAX call and In which component lifecycle methods should I make an AJAX call?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-make-AJAX-call-and-In-which-component-lifecycle-methods-should-I-make-an-AJAX-call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are render props?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-render-props</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-React-Router</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How React Router is different from history library?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-React-Router-is-different-from-history-library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the &lt;Router&gt; components of React Router v4?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-&lt;Router&gt;-components-of-React-Router-v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of push and replace methods of history?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-purpose-of-push-and-replace-methods-of-history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you programmatically navigate using React router v4?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-programmatically-navigate-using-React-router-v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to get query parameters in React Router v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-get-query-parameters-in-React-Router-v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why you get "Router may have only one child element" warning?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-you-get-"Router-may-have-only-one-child-element"-warning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to pass params to history.push method in React Router v4?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-pass-params-to-history.push-method-in-React-Router-v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to implement default or NotFound page?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-implement-default-or-NotFound-page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to get history on React Router v4?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-get-history-on-React-Router-v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to perform automatic redirect after login?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-perform-automatic-redirect-after-login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is React-Intl?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-React-Intl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the main features of React Intl?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-main-features-of-React-Intl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the two ways of formatting in React Intl?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-two-ways-of-formatting-in-React-Intl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to use FormattedMessage as placeholder using React Intl?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-use-FormattedMessage-as-placeholder-using-React-Intl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to access current locale with React Intl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-access-current-locale-with-React-Intl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to format date using React Intl?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-format-date-using-React-Intl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Shallow Renderer in React testing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-Shallow-Renderer-in-React-testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is TestRenderer package in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-TestRenderer-package-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of ReactTestUtils package?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-purpose-of-ReactTestUtils-package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Jest?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-Jest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the advantages of Jest over Jasmine?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-advantages-of-Jest-over-Jasmine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give a simple example of Jest test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Give-a-simple-example-of-Jest-test-case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Flux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Redux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the core principles of Redux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-core-principles-of-Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the downsides of Redux compared to Flux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-downsides-of-Redux-compared-to-Flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between mapStateToProps() and mapDispatchToProps()?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-mapStateToProps()-and-mapDispatchToProps()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I dispatch an action in reducer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Can-I-dispatch-an-action-in-reducer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to access Redux store outside a component?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-access-Redux-store-outside-a-component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the drawbacks of MVW pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-drawbacks-of-MVW-pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there any similarities between Redux and RxJS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Are-there-any-similarities-between-Redux-and-RxJS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to dispatch an action on load?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-dispatch-an-action-on-load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to use connect from React Redux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-use-connect-from-React-Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to reset state in Redux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-reset-state-in-Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whats the purpose of at symbol in the redux connect decorator?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Whats-the-purpose-of-at-symbol-in-the-redux-connect-decorator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between React context and React Redux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-React-context-and-React-Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why are Redux state functions called reducers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-are-Redux-state-functions-called-reducers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to make AJAX request in Redux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-make-AJAX-request-in-Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should I keep all component's state in Redux store?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Should-I-keep-all-component's-state-in-Redux-store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the proper way to access Redux store?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-proper-way-to-access-Redux-store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between component and container in React Redux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-component-and-container-in-React-Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of the constants in Redux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-purpose-of-the-constants-in-Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the different ways to write mapDispatchToProps()?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-different-ways-to-write-mapDispatchToProps()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the use of the ownProps parameter in mapStateToProps() and mapDispatchToProps()?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-use-of-the-ownProps-parameter-in-mapStateToProps()-and-mapDispatchToProps()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to structure Redux top level directories?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-structure-Redux-top-level-directories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is redux-saga?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-redux-saga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the mental model of redux-saga?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-mental-model-of-redux-saga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the differences between call and put in redux-saga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-differences-between-call-and-put-in-redux-saga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Redux Thunk?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-Redux-Thunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the differences between redux-saga and redux-thunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-differences-between-redux-saga-and-redux-thunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Redux DevTools?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-Redux-DevTools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the features of Redux DevTools?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-features-of-Redux-DevTools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are Redux selectors and Why to use them?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-Redux-selectors-and-Why-to-use-them</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Redux Form?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-Redux-Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the main features of Redux Form?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-main-features-of-Redux-Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to add multiple middlewares to Redux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-add-multiple-middlewares-to-Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to set initial state in Redux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-set-initial-state-in-Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How Relay is different from Redux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-Relay-is-different-from-Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is an action in Redux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-an-action-in-Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between React Native and React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-React-Native-and-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to test React Native apps?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-test-React-Native-apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to do logging in React Native?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-do-logging-in-React-Native</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to debug your React Native?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-debug-your-React-Native</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is reselect and how it works?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-reselect-and-how-it-works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Flow?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-Flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between Flow and PropTypes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-Flow-and-PropTypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to use font-awesome icons in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-use-font-awesome-icons-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is React Dev Tools?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-React-Dev-Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why is DevTools not loading in Chrome for local files?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-is-DevTools-not-loading-in-Chrome-for-local-files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to use Polymer in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-use-Polymer-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the advantages of React over Vue.js?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-advantages-of-React-over-Vue.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between React and Angular?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-React-and-Angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why React tab is not showing up in DevTools?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-React-tab-is-not-showing-up-in-DevTools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are styled components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-styled-components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give an example of Styled Components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Give-an-example-of-Styled-Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Relay?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-Relay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to use TypeScript in create-react-app application?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-use-TypeScript-in-create-react-app-application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the main features of reselect library?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-main-features-of-reselect-library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give an example of reselect usage?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Give-an-example-of-reselect-usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the statics object work with ES6 classes in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Does-the-statics-object-work-with-ES6-classes-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can Redux only be used with React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Can-Redux-only-be-used-with-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you need to have a particular build tool to use Redux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Do-you-need-to-have-a-particular-build-tool-to-use-Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How Redux Form initialValues get updated from state?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-Redux-Form-initialValues-get-updated-from-state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How React PropTypes allow different type for one prop?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-React-PropTypes-allow-different-type-for-one-prop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I import an SVG file as react component?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Can-I-import-an-SVG-file-as-react-component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why are inline ref callbacks or functions not recommended?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-are-inline-ref-callbacks-or-functions-not-recommended</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is render hijacking in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-render-hijacking-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are HOC factory implementations?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-HOC-factory-implementations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to pass numbers to React component?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-pass-numbers-to-React-component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do I need to keep all my state into Redux? Should I ever use react internal state?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Do-I-need-to-keep-all-my-state-into-Redux-Should-I-ever-use-react-internal-state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of registerServiceWorker in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-purpose-of-registerServiceWorker-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is React memo function?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-React-memo-function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is React lazy function?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-React-lazy-function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to prevent unnecessary updates using setState?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-prevent-unnecessary-updates-using-setState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you render Array, Strings and Numbers in React 16 Version?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-render-Array,-Strings-and-Numbers-in-React-16-Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to use class field declarations syntax in React classes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-use-class-field-declarations-syntax-in-React-classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are hooks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-hooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What rules need to be followed for hooks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-rules-need-to-be-followed-for-hooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to ensure hooks followed the rules in your project?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-ensure-hooks-followed-the-rules-in-your-project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the differences between Flux and Redux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-differences-between-Flux-and-Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the benefits of React Router V4?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-benefits-of-React-Router-V4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you describe about componentDidCatch lifecycle method signature?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Can-you-describe-about-componentDidCatch-lifecycle-method-signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In which scenarios error boundaries do not catch errors?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#In-which-scenarios-error-boundaries-do-not-catch-errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do you not need error boundaries for event handlers?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-do-you-not-need-error-boundaries-for-event-handlers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between try catch block and error boundaries?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-try-catch-block-and-error-boundaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the behavior of uncaught errors in react 16?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-behavior-of-uncaught-errors-in-react-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the proper placement for error boundaries?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-proper-placement-for-error-boundaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the benefit of component stack trace from error boundary?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-benefit-of-component-stack-trace-from-error-boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the required method to be defined for a class component?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-required-method-to-be-defined-for-a-class-component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the possible return types of render method?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-possible-return-types-of-render-method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the main purpose of constructor?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-main-purpose-of-constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it mandatory to define constructor for React component?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Is-it-mandatory-to-define-constructor-for-React-component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are default props?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-default-props</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why should not call setState in componentWillUnmount?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-should-not-call-setState-in-componentWillUnmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of getDerivedStateFromError?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-purpose-of-getDerivedStateFromError</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the methods order when component re-rendered?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-methods-order-when-component-re-rendered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the methods invoked during error handling?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-methods-invoked-during-error-handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of displayName class property?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-purpose-of-displayName-class-property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the browser support for react applications?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-browser-support-for-react-applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of unmountComponentAtNode method?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-purpose-of-unmountComponentAtNode-method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is code-splitting?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-code-splitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the benefit of strict mode?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-benefit-of-strict-mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are Keyed Fragments?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-Keyed-Fragments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does React support all HTML attributes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Does-React-support-all-HTML-attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the limitations with HOCs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-limitations-with-HOCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to debug forwardRefs in DevTools?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-debug-forwardRefs-in-DevTools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When component props defaults to true?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#When-component-props-defaults-to-true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is NextJS and major features of it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-NextJS-and-major-features-of-it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you pass an event handler to a component?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-pass-an-event-handler-to-a-component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it good to use arrow functions in render methods?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Is-it-good-to-use-arrow-functions-in-render-methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to prevent a function from being called multiple times?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-prevent-a-function-from-being-called-multiple-times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How JSX prevents Injection Attacks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-JSX-prevents-Injection-Attacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you update rendered elements?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-update-rendered-elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you say that props are read only?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-say-that-props-are-read-only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you say that state updates are merged?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-say-that-state-updates-are-merged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you pass arguments to an event handler?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-pass-arguments-to-an-event-handler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to prevent component from rendering?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-prevent-component-from-rendering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the conditions to safely use the index as a key?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-conditions-to-safely-use-the-index-as-a-key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it keys should be globally unique?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Is-it-keys-should-be-globally-unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the popular choice for form handling?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-popular-choice-for-form-handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the advantages of formik over redux form library?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-advantages-of-formik-over-redux-form-library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do you not required to use inheritance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-do-you-not-required-to-use-inheritance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I use web components in react application?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Can-I-use-web-components-in-react-application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is dynamic import?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-dynamic-import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are loadable components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-loadable-components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is suspense component?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-suspense-component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is route based code splitting?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-route-based-code-splitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Give an example on How to use context?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Give-an-example-on-How-to-use-context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of default value in context?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-purpose-of-default-value-in-context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you use contextType?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-use-contextType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a consumer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-a-consumer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you solve performance corner cases while using context?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-solve-performance-corner-cases-while-using-context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of forward ref in HOCs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-purpose-of-forward-ref-in-HOCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it ref argument available for all functions or class components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Is-it-ref-argument-available-for-all-functions-or-class-components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do you need additional care for component libraries while using forward refs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-do-you-need-additional-care-for-component-libraries-while-using-forward-refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to create react class components without ES6?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-create-react-class-components-without-ES6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it possible to use react without JSX?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Is-it-possible-to-use-react-without-JSX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is diffing algorithm?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-diffing-algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the rules covered by diffing algorithm?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-rules-covered-by-diffing-algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When do you need to use refs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#When-do-you-need-to-use-refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it prop must be named as render for render props?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Is-it-prop-must-be-named-as-render-for-render-props</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the problems of using render props with pure components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-problems-of-using-render-props-with-pure-components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you create HOC using render props?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-create-HOC-using-render-props</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is windowing technique?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-windowing-technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you print falsy values in JSX?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-print-falsy-values-in-JSX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the typical use case of portals?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-typical-use-case-of-portals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you set default value for uncontrolled component?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-set-default-value-for-uncontrolled-component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your favorite React stack?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-your-favorite-React-stack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between Real DOM and Virtual DOM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-Real-DOM-and-Virtual-DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to add Bootstrap to a react application?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-add-Bootstrap-to-a-react-application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you list down top websites or applications using react as front end framework?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Can-you-list-down-top-websites-or-applications-using-react-as-front-end-framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it recommended to use CSS In JS technique in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Is-it-recommended-to-use-CSS-In-JS-technique-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do I need to rewrite all my class components with hooks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Do-I-need-to-rewrite-all-my-class-components-with-hooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to fetch data with React Hooks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-to-fetch-data-with-React-Hooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is Hooks cover all use cases for classes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Is-Hooks-cover-all-use-cases-for-classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the stable release for hooks support?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-stable-release-for-hooks-support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why do we use array destructuring (square brackets notation) in useState?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-do-we-use-array-destructuring-(square-brackets-notation)-in-useState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the sources used for introducing hooks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-sources-used-for-introducing-hooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you access imperative API of web components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-access-imperative-API-of-web-components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is formik?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-formik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are typical middleware choices for handling asynchronous calls in Redux?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-typical-middleware-choices-for-handling-asynchronous-calls-in-Redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do browsers understand JSX code?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Do-browsers-understand-JSX-code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describe about data flow in react?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Describe-about-data-flow-in-react</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is react scripts?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-react-scripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the features of create react app?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-features-of-create-react-app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of renderToNodeStream method?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-purpose-of-renderToNodeStream-method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is MobX?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-MobX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the differences between Redux and MobX?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-differences-between-Redux-and-MobX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should I learn ES6 before learning ReactJS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Should-I-learn-ES6-before-learning-ReactJS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Concurrent Rendering?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-Concurrent-Rendering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between async mode and concurrent mode?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-async-mode-and-concurrent-mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can I use javascript urls in react16.9?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Can-I-use-javascript-urls-in-react16.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the purpose of eslint plugin for hooks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-purpose-of-eslint-plugin-for-hooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between Imperative and Declarative in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-Imperative-and-Declarative-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the benefits of using typescript with reactjs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-benefits-of-using-typescript-with-reactjs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you make sure that user remains authenticated on page refresh while using Context API State Management?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-make-sure-that-user-remains-authenticated-on-page-refresh-while-using-Context-API-State-Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the benefits of new JSX transform?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-benefits-of-new-JSX-transform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How is the new JSX transform different from old transform?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-is-the-new-JSX-transform-different-from-old-transform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you get redux scaffolding using create-react-app?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#How-do-you-get-redux-scaffolding-using-create-react-app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are React Server components?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-React-Server-components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is prop drilling?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-prop-drilling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is state mutation and how to prevent it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-state-mutation-and-how-to-prevent-it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the difference between useState and useRef hook?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-the-difference-between-useState-and-useRef-hook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a wrapper component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-a-wrapper-component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the differences between useEffect and useLayoutEffect hooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-differences-between-useEffect-and-useLayoutEffect-hooks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the differences between Functional and Class Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-are-the-differences-between-Functional-and-Class-Components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is strict mode in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#What-is-strict-mode-in-React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why does strict mode render twice in React?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sudheerj/reactjs-interview-questions#Why-does-strict-mode-render-twice-in-React</t>
   </si>
 </sst>
 </file>
@@ -116,7 +2369,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -148,6 +2401,23 @@
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,7 +2462,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -207,6 +2477,22 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -332,15 +2618,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C423"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C87" activeCellId="0" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="141.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="80.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="58.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -368,12 +2655,18 @@
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -382,7 +2675,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,7 +2686,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,7 +2697,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,7 +2708,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,7 +2719,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,7 +2730,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -430,7 +2741,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -438,7 +2752,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,7 +2763,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,7 +2774,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,7 +2785,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -470,7 +2796,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,7 +2807,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,7 +2818,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,7 +2829,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -502,7 +2840,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -510,7 +2851,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,7 +2862,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -526,7 +2873,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,7 +2884,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,7 +2895,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,8 +2906,4359 @@
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C237" s="6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B284" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="C291" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C293" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C304" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="C305" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="C307" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C308" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B320" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B323" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B324" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B328" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B330" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B331" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B332" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B333" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B334" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B337" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B338" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B340" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="C340" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B341" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="C341" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B342" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="C342" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C343" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B344" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C344" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B345" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="C345" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B346" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B347" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B348" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C348" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B349" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C349" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B350" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="C350" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B351" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="C351" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B352" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="C352" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B353" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="C353" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B354" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C354" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B355" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="C355" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B356" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="C356" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="C357" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B358" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="C358" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B359" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C359" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B360" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="C360" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B361" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C361" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B362" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="C362" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C363" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B364" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B365" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C365" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B366" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="C366" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B367" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B368" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B369" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B370" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C370" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B371" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C371" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B372" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C372" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B373" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C373" s="6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B374" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C374" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B375" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C375" s="6" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B376" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="C376" s="6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B377" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="C377" s="6" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B378" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="C378" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B379" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="C379" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B380" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C380" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B381" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C381" s="6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B382" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="C382" s="6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B383" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C383" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B384" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C384" s="6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B385" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C385" s="6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B386" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="C386" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B387" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B388" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="C388" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="C389" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B390" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B391" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="C391" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B392" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="C392" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C393" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B394" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="C394" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B395" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="C395" s="6" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B396" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="C396" s="6" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B397" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="C397" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B398" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="C398" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B399" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="C399" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B400" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C400" s="6" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B401" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C401" s="6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B402" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="C402" s="6" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="C403" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B404" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="C404" s="6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B405" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="C405" s="6" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="C406" s="6" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B407" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="C407" s="6" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B408" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="C408" s="6" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="C409" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B410" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C410" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="C411" s="6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B412" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="C412" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B413" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C413" s="6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B414" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="C414" s="6" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B415" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="C415" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B416" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="C416" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C417" s="6" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B418" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="C418" s="6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B419" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C419" s="6" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B420" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C420" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C421" s="6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B422" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="C422" s="6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B423" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -559,29 +7266,395 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" location="nullVsUndefined" display="What are the differences between null and undefined?"/>
-    <hyperlink ref="B5" r:id="rId2" location="doubleVsTripleEqual" display="What are the differences between == and ===?"/>
-    <hyperlink ref="B6" r:id="rId3" location="objectEquality" display="How would you compare two objects in JavaScript?"/>
-    <hyperlink ref="B7" r:id="rId4" location="trueLies" display="11+ true false related questions that will trick you."/>
-    <hyperlink ref="B8" r:id="rId5" location="truthyVsEqality" display="As [] is true, []==true should also be true. right?"/>
-    <hyperlink ref="B9" r:id="rId6" location="extendObject" display="How could you write a method on instance of a date which will give you next day?"/>
-    <hyperlink ref="B10" r:id="rId7" location="extendObject" display="If i have a var str = 'hello world', how could i get str.reverse() return 'dlrow olleh'?"/>
-    <hyperlink ref="B11" r:id="rId8" location="extendObject" display="How could you make this work [1,2,3,4,5].duplicator(); // [1,2,3,4,5,1,2,3,4,5] ?"/>
-    <hyperlink ref="B12" r:id="rId9" location="bindthis" display="If you want to use an arbitrary object as value of this, how will you do that?"/>
-    <hyperlink ref="B13" r:id="rId10" location="bindthis" display="If an older browser dont have bind function, how will you shim it"/>
-    <hyperlink ref="B14" r:id="rId11" location="call" display="Write a simple function to tell whether 2 is passed as parameter or not?"/>
-    <hyperlink ref="B15" r:id="rId12" location="apply" display="How could you use Math.max to find the max value in an array?"/>
-    <hyperlink ref="B16" r:id="rId13" location="this" display="What the heck is this in JavaScript?"/>
-    <hyperlink ref="B17" r:id="rId14" location="rapidFire" display="21+ small but tricky questions"/>
-    <hyperlink ref="B18" r:id="rId15" location="insertSpace" display="How could you set a prefix before everything you log? for example, if you log('my message') it will log: &quot;(app) my message&quot;"/>
-    <hyperlink ref="B19" r:id="rId16" location="scopeAndHoisting" display="What will you see in the console for the following example?"/>
-    <hyperlink ref="B20" r:id="rId17" location="closure" display="Look at the code below, you have a for loop if you have setTimeout inside it. If log the loop counter inside setTimeout, what will be logged?"/>
-    <hyperlink ref="B21" r:id="rId18" location="deleteProperty" display="Look at the code below, I have a property in a object and I am creating a new object where I am setting it to a new value. If I delete that property what will i get if I try to access that property?"/>
-    <hyperlink ref="B22" r:id="rId19" location="byValueByRef" display="Does JavaScript pass parameter by value or by reference?"/>
-    <hyperlink ref="B23" r:id="rId20" location="memoization" display="How could you implement cache to save calculation time for a recursive fibonacci function?"/>
-    <hyperlink ref="B24" r:id="rId21" location="cacheFunction" display="How could you cache execution of any function?"/>
-    <hyperlink ref="B25" r:id="rId22" location="chianing" display="If you need to implement the following chaining with call back, how will you implement it?"/>
-    <hyperlink ref="B26" r:id="rId23" location="animation" display="How could you implement moveLeft animation?"/>
-    <hyperlink ref="B27" r:id="rId24" location="currying" display="How would you implement currying for any functions?"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B5" r:id="rId3" location="doubleVsTripleEqual" display="What are the differences between == and ===?"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B6" r:id="rId5" location="objectEquality" display="How would you compare two objects in JavaScript?"/>
+    <hyperlink ref="C6" r:id="rId6" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B7" r:id="rId7" location="trueLies" display="11+ true false related questions that will trick you."/>
+    <hyperlink ref="C7" r:id="rId8" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B8" r:id="rId9" location="truthyVsEqality" display="As [] is true, []==true should also be true. right?"/>
+    <hyperlink ref="C8" r:id="rId10" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B9" r:id="rId11" location="extendObject" display="How could you write a method on instance of a date which will give you next day?"/>
+    <hyperlink ref="C9" r:id="rId12" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B10" r:id="rId13" location="extendObject" display="If i have a var str = 'hello world', how could i get str.reverse() return 'dlrow olleh'?"/>
+    <hyperlink ref="C10" r:id="rId14" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B11" r:id="rId15" location="extendObject" display="How could you make this work [1,2,3,4,5].duplicator(); // [1,2,3,4,5,1,2,3,4,5] ?"/>
+    <hyperlink ref="C11" r:id="rId16" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B12" r:id="rId17" location="bindthis" display="If you want to use an arbitrary object as value of this, how will you do that?"/>
+    <hyperlink ref="C12" r:id="rId18" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B13" r:id="rId19" location="bindthis" display="If an older browser dont have bind function, how will you shim it"/>
+    <hyperlink ref="C13" r:id="rId20" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B14" r:id="rId21" location="call" display="Write a simple function to tell whether 2 is passed as parameter or not?"/>
+    <hyperlink ref="C14" r:id="rId22" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B15" r:id="rId23" location="apply" display="How could you use Math.max to find the max value in an array?"/>
+    <hyperlink ref="C15" r:id="rId24" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B16" r:id="rId25" location="this" display="What the heck is this in JavaScript?"/>
+    <hyperlink ref="C16" r:id="rId26" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B17" r:id="rId27" location="rapidFire" display="21+ small but tricky questions"/>
+    <hyperlink ref="C17" r:id="rId28" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B18" r:id="rId29" location="insertSpace" display="How could you set a prefix before everything you log? for example, if you log('my message') it will log: &quot;(app) my message&quot;"/>
+    <hyperlink ref="C18" r:id="rId30" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B19" r:id="rId31" location="scopeAndHoisting" display="What will you see in the console for the following example?"/>
+    <hyperlink ref="C19" r:id="rId32" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B20" r:id="rId33" location="closure" display="Look at the code below, you have a for loop if you have setTimeout inside it. If log the loop counter inside setTimeout, what will be logged?"/>
+    <hyperlink ref="C20" r:id="rId34" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B21" r:id="rId35" location="deleteProperty" display="Look at the code below, I have a property in a object and I am creating a new object where I am setting it to a new value. If I delete that property what will i get if I try to access that property?"/>
+    <hyperlink ref="C21" r:id="rId36" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B22" r:id="rId37" location="byValueByRef" display="Does JavaScript pass parameter by value or by reference?"/>
+    <hyperlink ref="C22" r:id="rId38" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B23" r:id="rId39" location="memoization" display="How could you implement cache to save calculation time for a recursive fibonacci function?"/>
+    <hyperlink ref="C23" r:id="rId40" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B24" r:id="rId41" location="cacheFunction" display="How could you cache execution of any function?"/>
+    <hyperlink ref="C24" r:id="rId42" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B25" r:id="rId43" location="chianing" display="If you need to implement the following chaining with call back, how will you implement it?"/>
+    <hyperlink ref="C25" r:id="rId44" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B26" r:id="rId45" location="animation" display="How could you implement moveLeft animation?"/>
+    <hyperlink ref="C26" r:id="rId46" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B27" r:id="rId47" location="currying" display="How would you implement currying for any functions?"/>
+    <hyperlink ref="C27" r:id="rId48" display="https://www.thatjsdude.com/interview/js2.html"/>
+    <hyperlink ref="B59" r:id="rId49" display="Give me an example of a time you faced a conflict with a coworker. How did you handle that?"/>
+    <hyperlink ref="B60" r:id="rId50" display="Describe a time when you had to step up and demonstrate leadership skills."/>
+    <hyperlink ref="B61" r:id="rId51" display="Tell me about a time you made a mistake and wish you’d handled a situation with a colleague differently."/>
+    <hyperlink ref="B68" r:id="rId52" display="Tell me about a time you were under a lot of pressure at work or at school. What was going on, and how did you get through it?"/>
+    <hyperlink ref="B72" r:id="rId53" display="Tell me about a time you failed. How did you deal with the situation?"/>
+    <hyperlink ref="B78" r:id="rId54" display="written communication"/>
+    <hyperlink ref="B83" r:id="rId55" display="Tell me about your proudest professional accomplishment."/>
+    <hyperlink ref="B88" r:id="rId56" location="what-is-react" display="What is React?"/>
+    <hyperlink ref="B89" r:id="rId57" location="what-are-the-major-features-of-react" display="What are the major features of React?"/>
+    <hyperlink ref="B90" r:id="rId58" location="what-is-jsx" display="What is JSX?"/>
+    <hyperlink ref="B91" r:id="rId59" location="what-is-the-difference-between-element-and-component" display="What is the difference between Element and Component?"/>
+    <hyperlink ref="B92" r:id="rId60" location="how-to-create-components-in-react" display="How to create components in React?"/>
+    <hyperlink ref="B93" r:id="rId61" location="when-to-use-a-class-component-over-a-function-component" display="When to use a Class Component over a Function Component?"/>
+    <hyperlink ref="B94" r:id="rId62" location="what-are-pure-components" display="What are Pure Components?"/>
+    <hyperlink ref="B95" r:id="rId63" location="what-is-state-in-react" display="What is state in React?"/>
+    <hyperlink ref="B96" r:id="rId64" location="what-are-props-in-react" display="What are props in React?"/>
+    <hyperlink ref="B97" r:id="rId65" location="what-is-the-difference-between-state-and-props" display="What is the difference between state and props?"/>
+    <hyperlink ref="B98" r:id="rId66" location="why-should-we-not-update-the-state-directly" display="Why should we not update the state directly?"/>
+    <hyperlink ref="B99" r:id="rId67" location="what-is-the-purpose-of-callback-function-as-an-argument-of-setstate" display="What is the purpose of callback function as an argument of setState()?"/>
+    <hyperlink ref="B100" r:id="rId68" location="what-is-the-difference-between-html-and-react-event-handling" display="What is the difference between HTML and React event handling?"/>
+    <hyperlink ref="B101" r:id="rId69" location="how-to-bind-methods-or-event-handlers-in-jsx-callbacks" display="How to bind methods or event handlers in JSX callbacks?"/>
+    <hyperlink ref="B102" r:id="rId70" location="how-to-pass-a-parameter-to-an-event-handler-or-callback" display="How to pass a parameter to an event handler or callback?"/>
+    <hyperlink ref="B103" r:id="rId71" location="what-are-synthetic-events-in-react" display="What are synthetic events in React?"/>
+    <hyperlink ref="B104" r:id="rId72" location="what-are-inline-conditional-expressions" display="What are inline conditional expressions?"/>
+    <hyperlink ref="B105" r:id="rId73" location="what-is-key-prop-and-what-is-the-benefit-of-using-it-in-arrays-of-elements" display="What is &quot;key&quot; prop and what is the benefit of using it in arrays of elements?"/>
+    <hyperlink ref="B106" r:id="rId74" location="what-is-the-use-of-refs" display="What is the use of refs?"/>
+    <hyperlink ref="B107" r:id="rId75" location="how-to-create-refs" display="How to create refs?"/>
+    <hyperlink ref="B108" r:id="rId76" location="what-are-forward-refs" display="What are forward refs?"/>
+    <hyperlink ref="B109" r:id="rId77" location="which-is-preferred-option-with-in-callback-refs-and-finddomnode" display="Which is preferred option with in callback refs and findDOMNode()?"/>
+    <hyperlink ref="B110" r:id="rId78" location="why-are-string-refs-legacy" display="Why are String Refs legacy?"/>
+    <hyperlink ref="B111" r:id="rId79" location="what-is-virtual-dom" display="What is Virtual DOM?"/>
+    <hyperlink ref="B112" r:id="rId80" location="how-virtual-dom-works" display="How Virtual DOM works?"/>
+    <hyperlink ref="B113" r:id="rId81" location="what-is-the-difference-between-shadow-dom-and-virtual-dom" display="What is the difference between Shadow DOM and Virtual DOM?"/>
+    <hyperlink ref="B114" r:id="rId82" location="what-is-react-fiber" display="What is React Fiber?"/>
+    <hyperlink ref="B115" r:id="rId83" location="what-is-the-main-goal-of-react-fiber" display="What is the main goal of React Fiber?"/>
+    <hyperlink ref="B116" r:id="rId84" location="what-are-controlled-components" display="What are controlled components?"/>
+    <hyperlink ref="B117" r:id="rId85" location="what-are-uncontrolled-components" display="What are uncontrolled components?"/>
+    <hyperlink ref="B118" r:id="rId86" location="what-is-the-difference-between-createelement-and-cloneelement" display="What is the difference between createElement and cloneElement?"/>
+    <hyperlink ref="B119" r:id="rId87" location="what-is-lifting-state-up-in-react" display="What is Lifting State Up in React?"/>
+    <hyperlink ref="B120" r:id="rId88" location="what-are-the-different-phases-of-component-lifecycle" display="What are the different phases of component lifecycle?"/>
+    <hyperlink ref="B121" r:id="rId89" location="what-are-the-lifecycle-methods-of-react" display="What are the lifecycle methods of React?"/>
+    <hyperlink ref="B122" r:id="rId90" location="what-are-higher-order-components" display="What are Higher-Order components?"/>
+    <hyperlink ref="B123" r:id="rId91" location="how-to-create-props-proxy-for-hoc-component" display="How to create props proxy for HOC component?"/>
+    <hyperlink ref="B124" r:id="rId92" location="what-is-context" display="What is context?"/>
+    <hyperlink ref="B125" r:id="rId93" location="what-is-children-prop" display="What is children prop?"/>
+    <hyperlink ref="B126" r:id="rId94" location="how-to-write-comments-in-react" display="How to write comments in React?"/>
+    <hyperlink ref="B127" r:id="rId95" location="what-is-the-purpose-of-using-super-constructor-with-props-argument" display="What is the purpose of using super constructor with props argument?"/>
+    <hyperlink ref="B128" r:id="rId96" location="what-is-reconciliation" display="What is reconciliation?"/>
+    <hyperlink ref="B129" r:id="rId97" location="how-to-set-state-with-a-dynamic-key-name" display="How to set state with a dynamic key name?"/>
+    <hyperlink ref="B130" r:id="rId98" location="what-would-be-the-common-mistake-of-function-being-called-every-time-the-component-renders" display="What would be the common mistake of function being called every time the component renders?"/>
+    <hyperlink ref="B131" r:id="rId99" location="is-lazy-function-supports-named-exports" display="Is lazy function supports named exports?"/>
+    <hyperlink ref="B132" r:id="rId100" location="why-react-uses-classname-over-class-attribute" display="Why React uses className over class attribute?"/>
+    <hyperlink ref="B133" r:id="rId101" location="what-are-fragments" display="What are fragments?"/>
+    <hyperlink ref="B134" r:id="rId102" location="why-fragments-are-better-than-container-divs" display="Why fragments are better than container divs?"/>
+    <hyperlink ref="B135" r:id="rId103" location="what-are-portals-in-react" display="What are portals in React?"/>
+    <hyperlink ref="B136" r:id="rId104" location="what-are-stateless-components" display="What are stateless components?"/>
+    <hyperlink ref="B137" r:id="rId105" location="what-are-stateful-components" display="What are stateful components?"/>
+    <hyperlink ref="B138" r:id="rId106" location="how-to-apply-validation-on-props-in-react" display="How to apply validation on props in React?"/>
+    <hyperlink ref="B139" r:id="rId107" location="what-are-the-advantages-of-react" display="What are the advantages of React?"/>
+    <hyperlink ref="B140" r:id="rId108" location="what-are-the-limitations-of-react" display="What are the limitations of React?"/>
+    <hyperlink ref="B141" r:id="rId109" location="what-are-error-boundaries-in-react-v16" display="What are error boundaries in React v16"/>
+    <hyperlink ref="B142" r:id="rId110" location="how-are-error-boundaries-handled-in-react-v15" display="How are error boundaries handled in React v15?"/>
+    <hyperlink ref="B143" r:id="rId111" location="what-are-the-recommended-ways-for-static-type-checking" display="What are the recommended ways for static type checking?"/>
+    <hyperlink ref="B144" r:id="rId112" location="what-is-the-use-of-react-dom-package" display="What is the use of react-dom package?"/>
+    <hyperlink ref="B145" r:id="rId113" location="what-is-the-purpose-of-render-method-of-react-dom" display="What is the purpose of render method of react-dom?"/>
+    <hyperlink ref="B146" r:id="rId114" location="what-is-reactdomserver" display="What is ReactDOMServer?"/>
+    <hyperlink ref="B147" r:id="rId115" location="how-to-use-innerhtml-in-react" display="How to use InnerHtml in React?"/>
+    <hyperlink ref="B148" r:id="rId116" location="how-to-use-styles-in-react" display="How to use styles in React?"/>
+    <hyperlink ref="B149" r:id="rId117" location="how-events-are-different-in-react" display="How events are different in React?"/>
+    <hyperlink ref="B150" r:id="rId118" location="what-will-happen-if-you-use-setstate-in-constructor" display="What will happen if you use setState in constructor?"/>
+    <hyperlink ref="B151" r:id="rId119" location="what-is-the-impact-of-indexes-as-keys" display="What is the impact of indexes as keys?"/>
+    <hyperlink ref="B152" r:id="rId120" location="is-it-good-to-use-setstate-in-componentwillmount-method" display="Is it good to use setState() in componentWillMount() method?"/>
+    <hyperlink ref="B153" r:id="rId121" location="what-will-happen-if-you-use-props-in-initial-state" display="What will happen if you use props in initial state?"/>
+    <hyperlink ref="B154" r:id="rId122" location="how-do-you-conditionally-render-components" display="How do you conditionally render components?"/>
+    <hyperlink ref="B155" r:id="rId123" location="why-we-need-to-be-careful-when-spreading-props-on-dom-elements" display="Why we need to be careful when spreading props on DOM elements??"/>
+    <hyperlink ref="B156" r:id="rId124" location="how-you-use-decorators-in-react" display="How you use decorators in React?"/>
+    <hyperlink ref="B157" r:id="rId125" location="how-do-you-memoize-a-component" display="How do you memoize a component?"/>
+    <hyperlink ref="B158" r:id="rId126" location="how-you-implement-server-side-rendering-or-ssr" display="How you implement Server-Side Rendering or SSR?"/>
+    <hyperlink ref="B159" r:id="rId127" location="how-to-enable-production-mode-in-react" display="How to enable production mode in React?"/>
+    <hyperlink ref="B160" r:id="rId128" location="what-is-cra-and-its-benefits" display="What is CRA and its benefits?"/>
+    <hyperlink ref="B161" r:id="rId129" location="what-is-the-lifecycle-methods-order-in-mounting" display="What is the lifecycle methods order in mounting?"/>
+    <hyperlink ref="B162" r:id="rId130" location="what-are-the-lifecycle-methods-going-to-be-deprecated-in-react-v16" display="What are the lifecycle methods going to be deprecated in React v16?"/>
+    <hyperlink ref="B163" r:id="rId131" location="what-is-the-purpose-of-getderivedstatefromprops-lifecycle-method" display="What is the purpose of getDerivedStateFromProps() lifecycle method?"/>
+    <hyperlink ref="B164" r:id="rId132" location="what-is-the-purpose-of-getsnapshotbeforeupdate-lifecycle-method" display="What is the purpose of getSnapshotBeforeUpdate() lifecycle method?"/>
+    <hyperlink ref="B165" r:id="rId133" location="do-hooks-replace-render-props-and-higher-order-components" display="Do Hooks replace render props and higher order components?"/>
+    <hyperlink ref="B166" r:id="rId134" location="what-is-the-recommended-way-for-naming-components" display="What is the recommended way for naming components?"/>
+    <hyperlink ref="B167" r:id="rId135" location="what-is-the-recommended-ordering-of-methods-in-component-class" display="What is the recommended ordering of methods in component class?"/>
+    <hyperlink ref="B168" r:id="rId136" location="what-is-a-switching-component" display="What is a switching component?"/>
+    <hyperlink ref="B169" r:id="rId137" location="why-we-need-to-pass-a-function-to-setstate" display="Why we need to pass a function to setState()?"/>
+    <hyperlink ref="B170" r:id="rId138" location="what-are-react-mixins" display="What are React Mixins?"/>
+    <hyperlink ref="B171" r:id="rId139" location="why-is-ismounted-an-anti-pattern-and-what-is-the-proper-solution" display="Why is isMounted() an anti-pattern and what is the proper solution?"/>
+    <hyperlink ref="B172" r:id="rId140" location="what-are-the-pointer-events-supported-in-react" display="What are the Pointer Events supported in React?"/>
+    <hyperlink ref="B173" r:id="rId141" location="why-should-component-names-start-with-capital-letter" display="Why should component names start with capital letter?"/>
+    <hyperlink ref="B174" r:id="rId142" location="are-custom-dom-attributes-supported-in-react-v16" display="Are custom DOM attributes supported in React v16?"/>
+    <hyperlink ref="B175" r:id="rId143" location="what-is-the-difference-between-constructor-and-getinitialstate" display="What is the difference between constructor and getInitialState?"/>
+    <hyperlink ref="B176" r:id="rId144" location="can-you-force-a-component-to-re-render-without-calling-setstate" display="Can you force a component to re-render without calling setState?"/>
+    <hyperlink ref="B177" r:id="rId145" location="what-is-the-difference-between-super-and-superprops-in-react-using-es6-classes" display="What is the difference between super() and super(props) in React using ES6 classes?"/>
+    <hyperlink ref="B178" r:id="rId146" location="how-to-loop-inside-jsx" display="How to loop inside JSX?"/>
+    <hyperlink ref="B179" r:id="rId147" location="how-do-you-access-props-in-attribute-quotes" display="How do you access props in attribute quotes?"/>
+    <hyperlink ref="B180" r:id="rId148" location="what-is-react-proptype-array-with-shape" display="What is React PropType array with shape?"/>
+    <hyperlink ref="B181" r:id="rId149" location="how-to-conditionally-apply-class-attributes" display="How to conditionally apply class attributes?"/>
+    <hyperlink ref="B182" r:id="rId150" location="what-is-the-difference-between-react-and-reactdom" display="What is the difference between React and ReactDOM?"/>
+    <hyperlink ref="B183" r:id="rId151" location="why-reactdom-is-separated-from-react" display="Why ReactDOM is separated from React?"/>
+    <hyperlink ref="B184" r:id="rId152" location="how-to-use-react-label-element" display="How to use React label element?"/>
+    <hyperlink ref="B185" r:id="rId153" location="how-to-combine-multiple-inline-style-objects" display="How to combine multiple inline style objects?"/>
+    <hyperlink ref="B186" r:id="rId154" location="how-to-re-render-the-view-when-the-browser-is-resized" display="How to re-render the view when the browser is resized?"/>
+    <hyperlink ref="B187" r:id="rId155" location="what-is-the-difference-between-setstate-and-replacestate-methods" display="What is the difference between setState and replaceState methods?"/>
+    <hyperlink ref="B188" r:id="rId156" location="how-to-listen-to-state-changes" display="How to listen to state changes?"/>
+    <hyperlink ref="B189" r:id="rId157" location="what-is-the-recommended-approach-of-removing-an-array-element-in-react-state" display="What is the recommended approach of removing an array element in react state?"/>
+    <hyperlink ref="B190" r:id="rId158" location="is-it-possible-to-use-react-without-rendering-html" display="Is it possible to use React without rendering HTML?"/>
+    <hyperlink ref="B191" r:id="rId159" location="how-to-pretty-print-json-with-react" display="How to pretty print JSON with React?"/>
+    <hyperlink ref="B192" r:id="rId160" location="why-you-cant-update-props-in-react" display="Why you can't update props in React?"/>
+    <hyperlink ref="B193" r:id="rId161" location="how-to-focus-an-input-element-on-page-load" display="How to focus an input element on page load?"/>
+    <hyperlink ref="B194" r:id="rId162" location="what-are-the-possible-ways-of-updating-objects-in-state" display="What are the possible ways of updating objects in state?"/>
+    <hyperlink ref="B195" r:id="rId163" location="how-can-we-find-the-version-of-react-at-runtime-in-the-browser" display="How can we find the version of React at runtime in the browser?"/>
+    <hyperlink ref="B196" r:id="rId164" location="what-are-the-approaches-to-include-polyfills-in-your-create-react-app" display="What are the approaches to include polyfills in your create-react-app?"/>
+    <hyperlink ref="B197" r:id="rId165" location="how-to-use-https-instead-of-http-in-create-react-app" display="How to use https instead of http in create-react-app?"/>
+    <hyperlink ref="B198" r:id="rId166" location="how-to-avoid-using-relative-path-imports-in-create-react-app" display="How to avoid using relative path imports in create-react-app?"/>
+    <hyperlink ref="B199" r:id="rId167" location="how-to-add-google-analytics-for-react-router" display="How to add Google Analytics for react-router?"/>
+    <hyperlink ref="B200" r:id="rId168" location="how-to-update-a-component-every-second" display="How to update a component every second?"/>
+    <hyperlink ref="B201" r:id="rId169" location="how-do-you-apply-vendor-prefixes-to-inline-styles-in-react" display="How do you apply vendor prefixes to inline styles in React?"/>
+    <hyperlink ref="B202" r:id="rId170" location="how-to-import-and-export-components-using-react-and-es6" display="How to import and export components using react and ES6?"/>
+    <hyperlink ref="B203" r:id="rId171" location="what-are-the-exceptions-on-react-component-naming" display="What are the exceptions on React component naming?"/>
+    <hyperlink ref="B204" r:id="rId172" location="why-is-a-component-constructor-called-only-once" display="Why is a component constructor called only once?"/>
+    <hyperlink ref="B205" r:id="rId173" location="how-to-define-constants-in-react" display="How to define constants in React?"/>
+    <hyperlink ref="B206" r:id="rId174" location="how-to-programmatically-trigger-click-event-in-react" display="How to programmatically trigger click event in React?"/>
+    <hyperlink ref="B207" r:id="rId175" location="is-it-possible-to-use-asyncawait-in-plain-react" display="Is it possible to use async/await in plain React?"/>
+    <hyperlink ref="B208" r:id="rId176" location="what-are-the-common-folder-structures-for-react" display="What are the common folder structures for React?"/>
+    <hyperlink ref="B209" r:id="rId177" location="what-are-the-popular-packages-for-animation" display="What are the popular packages for animation?"/>
+    <hyperlink ref="B210" r:id="rId178" location="what-is-the-benefit-of-styles-modules" display="What is the benefit of styles modules?"/>
+    <hyperlink ref="B211" r:id="rId179" location="what-are-the-popular-react-specific-linters" display="What are the popular React-specific linters?"/>
+    <hyperlink ref="B212" r:id="rId180" location="how-to-make-ajax-call-and-in-which-component-lifecycle-methods-should-i-make-an-ajax-call" display="How to make AJAX call and In which component lifecycle methods should I make an AJAX call?"/>
+    <hyperlink ref="B213" r:id="rId181" location="what-are-render-props" display="What are render props?"/>
+    <hyperlink ref="B214" r:id="rId182" location="what-is-react-router" display="What is React Router?"/>
+    <hyperlink ref="B215" r:id="rId183" location="how-react-router-is-different-from-history-library" display="How React Router is different from history library?"/>
+    <hyperlink ref="B216" r:id="rId184" location="what-are-the-router-components-of-react-router-v4" display="What are the &lt;Router&gt; components of React Router v4?"/>
+    <hyperlink ref="B217" r:id="rId185" location="what-is-the-purpose-of-push-and-replace-methods-of-history" display="What is the purpose of push and replace methods of history?"/>
+    <hyperlink ref="B218" r:id="rId186" location="how-do-you-programmatically-navigate-using-react-router-v4" display="How do you programmatically navigate using React router v4?"/>
+    <hyperlink ref="B219" r:id="rId187" location="how-to-get-query-parameters-in-react-router-v4" display="How to get query parameters in React Router v4"/>
+    <hyperlink ref="B220" r:id="rId188" location="why-you-get-router-may-have-only-one-child-element-warning" display="Why you get &quot;Router may have only one child element&quot; warning?"/>
+    <hyperlink ref="B221" r:id="rId189" location="how-to-pass-params-to-historypush-method-in-react-router-v4" display="How to pass params to history.push method in React Router v4?"/>
+    <hyperlink ref="B222" r:id="rId190" location="how-to-implement-default-or-notfound-page" display="How to implement default or NotFound page?"/>
+    <hyperlink ref="B223" r:id="rId191" location="how-to-get-history-on-react-router-v4" display="How to get history on React Router v4?"/>
+    <hyperlink ref="B224" r:id="rId192" location="how-to-perform-automatic-redirect-after-login" display="How to perform automatic redirect after login?"/>
+    <hyperlink ref="B225" r:id="rId193" location="what-is-react-intl" display="What is React-Intl?"/>
+    <hyperlink ref="B226" r:id="rId194" location="what-are-the-main-features-of-react-intl" display="What are the main features of React Intl?"/>
+    <hyperlink ref="B227" r:id="rId195" location="what-are-the-two-ways-of-formatting-in-react-intl" display="What are the two ways of formatting in React Intl?"/>
+    <hyperlink ref="B228" r:id="rId196" location="how-to-use-formattedmessage-as-placeholder-using-react-intl" display="How to use FormattedMessage as placeholder using React Intl?"/>
+    <hyperlink ref="B229" r:id="rId197" location="how-to-access-current-locale-with-react-intl" display="How to access current locale with React Intl"/>
+    <hyperlink ref="B230" r:id="rId198" location="how-to-format-date-using-react-intl" display="How to format date using React Intl?"/>
+    <hyperlink ref="B231" r:id="rId199" location="what-is-shallow-renderer-in-react-testing" display="What is Shallow Renderer in React testing?"/>
+    <hyperlink ref="B232" r:id="rId200" location="what-is-testrenderer-package-in-react" display="What is TestRenderer package in React?"/>
+    <hyperlink ref="B233" r:id="rId201" location="what-is-the-purpose-of-reacttestutils-package" display="What is the purpose of ReactTestUtils package?"/>
+    <hyperlink ref="B234" r:id="rId202" location="what-is-jest" display="What is Jest?"/>
+    <hyperlink ref="B235" r:id="rId203" location="what-are-the-advantages-of-jest-over-jasmine" display="What are the advantages of Jest over Jasmine?"/>
+    <hyperlink ref="B236" r:id="rId204" location="give-a-simple-example-of-jest-test-case" display="Give a simple example of Jest test case"/>
+    <hyperlink ref="B237" r:id="rId205" location="what-is-flux" display="What is Flux?"/>
+    <hyperlink ref="B238" r:id="rId206" location="what-is-redux" display="What is Redux?"/>
+    <hyperlink ref="B239" r:id="rId207" location="what-are-the-core-principles-of-redux" display="What are the core principles of Redux?"/>
+    <hyperlink ref="B240" r:id="rId208" location="what-are-the-downsides-of-redux-compared-to-flux" display="What are the downsides of Redux compared to Flux?"/>
+    <hyperlink ref="B241" r:id="rId209" location="what-is-the-difference-between-mapstatetoprops-and-mapdispatchtoprops" display="What is the difference between mapStateToProps() and mapDispatchToProps()?"/>
+    <hyperlink ref="B242" r:id="rId210" location="can-i-dispatch-an-action-in-reducer" display="Can I dispatch an action in reducer?"/>
+    <hyperlink ref="B243" r:id="rId211" location="how-to-access-redux-store-outside-a-component" display="How to access Redux store outside a component?"/>
+    <hyperlink ref="B244" r:id="rId212" location="what-are-the-drawbacks-of-mvw-pattern" display="What are the drawbacks of MVW pattern"/>
+    <hyperlink ref="B245" r:id="rId213" location="are-there-any-similarities-between-redux-and-rxjs" display="Are there any similarities between Redux and RxJS?"/>
+    <hyperlink ref="B246" r:id="rId214" location="how-to-dispatch-an-action-on-load" display="How to dispatch an action on load?"/>
+    <hyperlink ref="B247" r:id="rId215" location="how-to-use-connect-from-react-redux" display="How to use connect from React Redux?"/>
+    <hyperlink ref="B248" r:id="rId216" location="how-to-reset-state-in-redux" display="How to reset state in Redux?"/>
+    <hyperlink ref="B249" r:id="rId217" location="whats-the-purpose-of-at-symbol-in-the-redux-connect-decorator" display="Whats the purpose of at symbol in the redux connect decorator?"/>
+    <hyperlink ref="B250" r:id="rId218" location="what-is-the-difference-between-react-context-and-react-redux" display="What is the difference between React context and React Redux?"/>
+    <hyperlink ref="B251" r:id="rId219" location="why-are-redux-state-functions-called-reducers" display="Why are Redux state functions called reducers?"/>
+    <hyperlink ref="B252" r:id="rId220" location="how-to-make-ajax-request-in-redux" display="How to make AJAX request in Redux?"/>
+    <hyperlink ref="B253" r:id="rId221" location="should-i-keep-all-components-state-in-redux-store" display="Should I keep all component's state in Redux store?"/>
+    <hyperlink ref="B254" r:id="rId222" location="what-is-the-proper-way-to-access-redux-store" display="What is the proper way to access Redux store?"/>
+    <hyperlink ref="B255" r:id="rId223" location="what-is-the-difference-between-component-and-container-in-react-redux" display="What is the difference between component and container in React Redux?"/>
+    <hyperlink ref="B256" r:id="rId224" location="what-is-the-purpose-of-the-constants-in-redux" display="What is the purpose of the constants in Redux?"/>
+    <hyperlink ref="B257" r:id="rId225" location="what-are-the-different-ways-to-write-mapdispatchtoprops" display="What are the different ways to write mapDispatchToProps()?"/>
+    <hyperlink ref="B258" r:id="rId226" location="what-is-the-use-of-the-ownprops-parameter-in-mapstatetoprops-and-mapdispatchtoprops" display="What is the use of the ownProps parameter in mapStateToProps() and mapDispatchToProps()?"/>
+    <hyperlink ref="B259" r:id="rId227" location="how-to-structure-redux-top-level-directories" display="How to structure Redux top level directories?"/>
+    <hyperlink ref="B260" r:id="rId228" location="what-is-redux-saga" display="What is redux-saga?"/>
+    <hyperlink ref="B261" r:id="rId229" location="what-is-the-mental-model-of-redux-saga" display="What is the mental model of redux-saga?"/>
+    <hyperlink ref="B262" r:id="rId230" location="what-are-the-differences-between-call-and-put-in-redux-saga" display="What are the differences between call and put in redux-saga"/>
+    <hyperlink ref="B263" r:id="rId231" location="what-is-redux-thunk" display="What is Redux Thunk?"/>
+    <hyperlink ref="B264" r:id="rId232" location="what-are-the-differences-between-redux-saga-and-redux-thunk" display="What are the differences between redux-saga and redux-thunk"/>
+    <hyperlink ref="B265" r:id="rId233" location="what-is-redux-devtools" display="What is Redux DevTools?"/>
+    <hyperlink ref="B266" r:id="rId234" location="what-are-the-features-of-redux-devtools" display="What are the features of Redux DevTools?"/>
+    <hyperlink ref="B267" r:id="rId235" location="what-are-redux-selectors-and-why-to-use-them" display="What are Redux selectors and Why to use them?"/>
+    <hyperlink ref="B268" r:id="rId236" location="what-is-redux-form" display="What is Redux Form?"/>
+    <hyperlink ref="B269" r:id="rId237" location="what-are-the-main-features-of-redux-form" display="What are the main features of Redux Form?"/>
+    <hyperlink ref="B270" r:id="rId238" location="how-to-add-multiple-middlewares-to-redux" display="How to add multiple middlewares to Redux?"/>
+    <hyperlink ref="B271" r:id="rId239" location="how-to-set-initial-state-in-redux" display="How to set initial state in Redux?"/>
+    <hyperlink ref="B272" r:id="rId240" location="how-relay-is-different-from-redux" display="How Relay is different from Redux?"/>
+    <hyperlink ref="B273" r:id="rId241" location="what-is-an-action-in-redux" display="What is an action in Redux?"/>
+    <hyperlink ref="B274" r:id="rId242" location="what-is-the-difference-between-react-native-and-react" display="What is the difference between React Native and React?"/>
+    <hyperlink ref="B275" r:id="rId243" location="how-to-test-react-native-apps" display="How to test React Native apps?"/>
+    <hyperlink ref="B276" r:id="rId244" location="how-to-do-logging-in-react-native" display="How to do logging in React Native?"/>
+    <hyperlink ref="B277" r:id="rId245" location="how-to-debug-your-react-native" display="How to debug your React Native?"/>
+    <hyperlink ref="B278" r:id="rId246" location="what-is-reselect-and-how-it-works" display="What is reselect and how it works?"/>
+    <hyperlink ref="B279" r:id="rId247" location="what-is-flow" display="What is Flow?"/>
+    <hyperlink ref="B280" r:id="rId248" location="what-is-the-difference-between-flow-and-proptypes" display="What is the difference between Flow and PropTypes?"/>
+    <hyperlink ref="B281" r:id="rId249" location="how-to-use-font-awesome-icons-in-react" display="How to use font-awesome icons in React?"/>
+    <hyperlink ref="B282" r:id="rId250" location="what-is-react-dev-tools" display="What is React Dev Tools?"/>
+    <hyperlink ref="B283" r:id="rId251" location="why-is-devtools-not-loading-in-chrome-for-local-files" display="Why is DevTools not loading in Chrome for local files?"/>
+    <hyperlink ref="B284" r:id="rId252" location="how-to-use-polymer-in-react" display="How to use Polymer in React?"/>
+    <hyperlink ref="B285" r:id="rId253" location="what-are-the-advantages-of-react-over-vuejs" display="What are the advantages of React over Vue.js?"/>
+    <hyperlink ref="B286" r:id="rId254" location="what-is-the-difference-between-react-and-angular" display="What is the difference between React and Angular?"/>
+    <hyperlink ref="B287" r:id="rId255" location="why-react-tab-is-not-showing-up-in-devtools" display="Why React tab is not showing up in DevTools?"/>
+    <hyperlink ref="B288" r:id="rId256" location="what-are-styled-components" display="What are styled components?"/>
+    <hyperlink ref="B289" r:id="rId257" location="give-an-example-of-styled-components" display="Give an example of Styled Components?"/>
+    <hyperlink ref="B290" r:id="rId258" location="what-is-relay" display="What is Relay?"/>
+    <hyperlink ref="B291" r:id="rId259" location="how-to-use-typescript-in-create-react-app-application" display="How to use TypeScript in create-react-app application?"/>
+    <hyperlink ref="B292" r:id="rId260" location="what-are-the-main-features-of-reselect-library" display="What are the main features of reselect library?"/>
+    <hyperlink ref="B293" r:id="rId261" location="give-an-example-of-reselect-usage" display="Give an example of reselect usage?"/>
+    <hyperlink ref="B294" r:id="rId262" location="does-the-statics-object-work-with-es6-classes-in-react" display="Does the statics object work with ES6 classes in React?"/>
+    <hyperlink ref="B295" r:id="rId263" location="can-redux-only-be-used-with-react" display="Can Redux only be used with React?"/>
+    <hyperlink ref="B296" r:id="rId264" location="do-you-need-to-have-a-particular-build-tool-to-use-redux" display="Do you need to have a particular build tool to use Redux?"/>
+    <hyperlink ref="B297" r:id="rId265" location="how-redux-form-initialvalues-get-updated-from-state" display="How Redux Form initialValues get updated from state?"/>
+    <hyperlink ref="B298" r:id="rId266" location="how-react-proptypes-allow-different-types-for-one-prop" display="How React PropTypes allow different type for one prop?"/>
+    <hyperlink ref="B299" r:id="rId267" location="can-i-import-an-svg-file-as-react-component" display="Can I import an SVG file as react component?"/>
+    <hyperlink ref="B300" r:id="rId268" location="why-are-inline-ref-callbacks-or-functions-not-recommended" display="Why are inline ref callbacks or functions not recommended?"/>
+    <hyperlink ref="B301" r:id="rId269" location="what-is-render-hijacking-in-react" display="What is render hijacking in React?"/>
+    <hyperlink ref="B302" r:id="rId270" location="what-are-hoc-factory-implementations" display="What are HOC factory implementations?"/>
+    <hyperlink ref="B303" r:id="rId271" location="how-to-pass-numbers-to-react-component" display="How to pass numbers to React component?"/>
+    <hyperlink ref="B304" r:id="rId272" location="do-i-need-to-keep-all-my-state-into-redux-should-i-ever-use-react-internal-state" display="Do I need to keep all my state into Redux? Should I ever use react internal state?"/>
+    <hyperlink ref="B305" r:id="rId273" location="what-is-the-purpose-of-registerserviceworker-in-react" display="What is the purpose of registerServiceWorker in React?"/>
+    <hyperlink ref="B306" r:id="rId274" location="what-is-react-memo-function" display="What is React memo function?"/>
+    <hyperlink ref="B307" r:id="rId275" location="what-is-react-lazy-function" display="What is React lazy function?"/>
+    <hyperlink ref="B308" r:id="rId276" location="how-to-prevent-unnecessary-updates-using-setstate" display="How to prevent unnecessary updates using setState?"/>
+    <hyperlink ref="B309" r:id="rId277" location="how-do-you-render-array-strings-and-numbers-in-react-16-version" display="How do you render Array, Strings and Numbers in React 16 Version?"/>
+    <hyperlink ref="B310" r:id="rId278" location="how-to-use-class-field-declarations-syntax-in-react-classes" display="How to use class field declarations syntax in React classes?"/>
+    <hyperlink ref="B311" r:id="rId279" location="what-are-hooks" display="What are hooks?"/>
+    <hyperlink ref="B312" r:id="rId280" location="what-rules-need-to-be-followed-for-hooks" display="What rules need to be followed for hooks?"/>
+    <hyperlink ref="B313" r:id="rId281" location="how-to-ensure-hooks-followed-the-rules-in-your-project" display="How to ensure hooks followed the rules in your project?"/>
+    <hyperlink ref="B314" r:id="rId282" location="what-are-the-differences-between-flux-and-redux" display="What are the differences between Flux and Redux?"/>
+    <hyperlink ref="B315" r:id="rId283" location="what-are-the-benefits-of-react-router-v4" display="What are the benefits of React Router V4?"/>
+    <hyperlink ref="B316" r:id="rId284" location="can-you-describe-about-componentdidcatch-lifecycle-method-signature" display="Can you describe about componentDidCatch lifecycle method signature?"/>
+    <hyperlink ref="B317" r:id="rId285" location="in-which-scenarios-error-boundaries-do-not-catch-errors" display="In which scenarios error boundaries do not catch errors?"/>
+    <hyperlink ref="B318" r:id="rId286" location="why-do-you-not-need-error-boundaries-for-event-handlers" display="Why do you not need error boundaries for event handlers?"/>
+    <hyperlink ref="B319" r:id="rId287" location="what-is-the-difference-between-try-catch-block-and-error-boundaries" display="What is the difference between try catch block and error boundaries?"/>
+    <hyperlink ref="B320" r:id="rId288" location="what-is-the-behavior-of-uncaught-errors-in-react-16" display="What is the behavior of uncaught errors in react 16?"/>
+    <hyperlink ref="B321" r:id="rId289" location="what-is-the-proper-placement-for-error-boundaries" display="What is the proper placement for error boundaries?"/>
+    <hyperlink ref="B322" r:id="rId290" location="what-is-the-benefit-of-component-stack-trace-from-error-boundary" display="What is the benefit of component stack trace from error boundary?"/>
+    <hyperlink ref="B323" r:id="rId291" location="what-is-the-required-method-to-be-defined-for-a-class-component" display="What is the required method to be defined for a class component?"/>
+    <hyperlink ref="B324" r:id="rId292" location="what-are-the-possible-return-types-of-render-method" display="What are the possible return types of render method?"/>
+    <hyperlink ref="B325" r:id="rId293" location="what-is-the-main-purpose-of-constructor" display="What is the main purpose of constructor?"/>
+    <hyperlink ref="B326" r:id="rId294" location="is-it-mandatory-to-define-constructor-for-react-component" display="Is it mandatory to define constructor for React component?"/>
+    <hyperlink ref="B327" r:id="rId295" location="what-are-default-props" display="What are default props?"/>
+    <hyperlink ref="B328" r:id="rId296" location="why-should-not-call-setstate-in-componentwillunmount" display="Why should not call setState in componentWillUnmount?"/>
+    <hyperlink ref="B329" r:id="rId297" location="what-is-the-purpose-of-getderivedstatefromerror" display="What is the purpose of getDerivedStateFromError?"/>
+    <hyperlink ref="B330" r:id="rId298" location="what-is-the-methods-order-when-component-re-rendered" display="What is the methods order when component re-rendered?"/>
+    <hyperlink ref="B331" r:id="rId299" location="what-are-the-methods-invoked-during-error-handling" display="What are the methods invoked during error handling?"/>
+    <hyperlink ref="B332" r:id="rId300" location="what-is-the-purpose-of-displayname-class-property" display="What is the purpose of displayName class property?"/>
+    <hyperlink ref="B333" r:id="rId301" location="what-is-the-browser-support-for-react-applications" display="What is the browser support for react applications?"/>
+    <hyperlink ref="B334" r:id="rId302" location="what-is-the-purpose-of-unmountcomponentatnode-method" display="What is the purpose of unmountComponentAtNode method?"/>
+    <hyperlink ref="B335" r:id="rId303" location="what-is-code-splitting" display="What is code-splitting?"/>
+    <hyperlink ref="B336" r:id="rId304" location="what-is-the-benefit-of-strict-mode" display="What is the benefit of strict mode?"/>
+    <hyperlink ref="B337" r:id="rId305" location="what-are-keyed-fragments" display="What are Keyed Fragments?"/>
+    <hyperlink ref="B338" r:id="rId306" location="does-react-support-all-html-attributes" display="Does React support all HTML attributes?"/>
+    <hyperlink ref="B339" r:id="rId307" location="what-are-the-limitations-with-hocs" display="What are the limitations with HOCs?"/>
+    <hyperlink ref="B340" r:id="rId308" location="how-to-debug-forwardrefs-in-devtools" display="How to debug forwardRefs in DevTools?"/>
+    <hyperlink ref="B341" r:id="rId309" location="when-component-props-defaults-to-true" display="When component props defaults to true?"/>
+    <hyperlink ref="B342" r:id="rId310" location="what-is-nextjs-and-major-features-of-it" display="What is NextJS and major features of it?"/>
+    <hyperlink ref="B343" r:id="rId311" location="how-do-you-pass-an-event-handler-to-a-component" display="How do you pass an event handler to a component?"/>
+    <hyperlink ref="B344" r:id="rId312" location="is-it-good-to-use-arrow-functions-in-render-methods" display="Is it good to use arrow functions in render methods?"/>
+    <hyperlink ref="B345" r:id="rId313" location="how-to-prevent-a-function-from-being-called-multiple-times" display="How to prevent a function from being called multiple times?"/>
+    <hyperlink ref="B346" r:id="rId314" location="how-jsx-prevents-injection-attacks" display="How JSX prevents Injection Attacks?"/>
+    <hyperlink ref="B347" r:id="rId315" location="how-do-you-update-rendered-elements" display="How do you update rendered elements?"/>
+    <hyperlink ref="B348" r:id="rId316" location="how-do-you-say-that-props-are-read-only" display="How do you say that props are read only?"/>
+    <hyperlink ref="B349" r:id="rId317" location="how-do-you-say-that-state-updates-are-merged" display="How do you say that state updates are merged?"/>
+    <hyperlink ref="B350" r:id="rId318" location="how-do-you-pass-arguments-to-an-event-handler" display="How do you pass arguments to an event handler?"/>
+    <hyperlink ref="B351" r:id="rId319" location="how-to-prevent-component-from-rendering" display="How to prevent component from rendering?"/>
+    <hyperlink ref="B352" r:id="rId320" location="what-are-the-conditions-to-safely-use-the-index-as-a-key" display="What are the conditions to safely use the index as a key?"/>
+    <hyperlink ref="B353" r:id="rId321" location="is-it-keys-should-be-globally-unique" display="Is it keys should be globally unique?"/>
+    <hyperlink ref="B354" r:id="rId322" location="what-is-the-popular-choice-for-form-handling" display="What is the popular choice for form handling?"/>
+    <hyperlink ref="B355" r:id="rId323" location="what-are-the-advantages-of-formik-over-redux-form-library" display="What are the advantages of formik over redux form library?"/>
+    <hyperlink ref="B356" r:id="rId324" location="why-do-you-not-required-to-use-inheritance" display="Why do you not required to use inheritance?"/>
+    <hyperlink ref="B357" r:id="rId325" location="can-i-use-web-components-in-react-application" display="Can I use web components in react application?"/>
+    <hyperlink ref="B358" r:id="rId326" location="what-is-dynamic-import" display="What is dynamic import?"/>
+    <hyperlink ref="B359" r:id="rId327" location="what-are-loadable-components" display="What are loadable components?"/>
+    <hyperlink ref="B360" r:id="rId328" location="what-is-suspense-component" display="What is suspense component?"/>
+    <hyperlink ref="B361" r:id="rId329" location="what-is-route-based-code-splitting" display="What is route based code splitting?"/>
+    <hyperlink ref="B362" r:id="rId330" location="give-an-example-on-how-to-use-context" display="Give an example on How to use context?"/>
+    <hyperlink ref="B363" r:id="rId331" location="what-is-the-purpose-of-default-value-in-context" display="What is the purpose of default value in context?"/>
+    <hyperlink ref="B364" r:id="rId332" location="how-do-you-use-contexttype" display="How do you use contextType?"/>
+    <hyperlink ref="B365" r:id="rId333" location="what-is-a-consumer" display="What is a consumer?"/>
+    <hyperlink ref="B366" r:id="rId334" location="how-do-you-solve-performance-corner-cases-while-using-context" display="How do you solve performance corner cases while using context?"/>
+    <hyperlink ref="B367" r:id="rId335" location="what-is-the-purpose-of-forward-ref-in-hocs" display="What is the purpose of forward ref in HOCs?"/>
+    <hyperlink ref="B368" r:id="rId336" location="is-it-ref-argument-available-for-all-functions-or-class-components" display="Is it ref argument available for all functions or class components?"/>
+    <hyperlink ref="B369" r:id="rId337" location="why-do-you-need-additional-care-for-component-libraries-while-using-forward-refs" display="Why do you need additional care for component libraries while using forward refs?"/>
+    <hyperlink ref="B370" r:id="rId338" location="how-to-create-react-class-components-without-es6" display="How to create react class components without ES6?"/>
+    <hyperlink ref="B371" r:id="rId339" location="is-it-possible-to-use-react-without-jsx" display="Is it possible to use react without JSX?"/>
+    <hyperlink ref="B372" r:id="rId340" location="what-is-diffing-algorithm" display="What is diffing algorithm?"/>
+    <hyperlink ref="B373" r:id="rId341" location="what-are-the-rules-covered-by-diffing-algorithm" display="What are the rules covered by diffing algorithm?"/>
+    <hyperlink ref="B374" r:id="rId342" location="when-do-you-need-to-use-refs" display="When do you need to use refs?"/>
+    <hyperlink ref="B375" r:id="rId343" location="is-it-prop-must-be-named-as-render-for-render-props" display="Is it prop must be named as render for render props?"/>
+    <hyperlink ref="B376" r:id="rId344" location="what-are-the-problems-of-using-render-props-with-pure-components" display="What are the problems of using render props with pure components?"/>
+    <hyperlink ref="B377" r:id="rId345" location="how-do-you-create-hoc-using-render-props" display="How do you create HOC using render props?"/>
+    <hyperlink ref="B378" r:id="rId346" location="what-is-windowing-technique" display="What is windowing technique?"/>
+    <hyperlink ref="B379" r:id="rId347" location="how-do-you-print-falsy-values-in-jsx" display="How do you print falsy values in JSX?"/>
+    <hyperlink ref="B380" r:id="rId348" location="what-is-the-typical-use-case-of-portals" display="What is the typical use case of portals?"/>
+    <hyperlink ref="B381" r:id="rId349" location="how-do-you-set-default-value-for-uncontrolled-component" display="How do you set default value for uncontrolled component?"/>
+    <hyperlink ref="B382" r:id="rId350" location="what-is-your-favorite-react-stack" display="What is your favorite React stack?"/>
+    <hyperlink ref="B383" r:id="rId351" location="what-is-the-difference-between-real-dom-and-virtual-dom" display="What is the difference between Real DOM and Virtual DOM?"/>
+    <hyperlink ref="B384" r:id="rId352" location="how-to-add-bootstrap-to-a-react-application" display="How to add Bootstrap to a react application?"/>
+    <hyperlink ref="B385" r:id="rId353" location="can-you-list-down-top-websites-or-applications-using-react-as-front-end-framework" display="Can you list down top websites or applications using react as front end framework?"/>
+    <hyperlink ref="B386" r:id="rId354" location="is-it-recommended-to-use-css-in-js-technique-in-react" display="Is it recommended to use CSS In JS technique in React?"/>
+    <hyperlink ref="B387" r:id="rId355" location="do-i-need-to-rewrite-all-my-class-components-with-hooks" display="Do I need to rewrite all my class components with hooks?"/>
+    <hyperlink ref="B388" r:id="rId356" location="how-to-fetch-data-with-react-hooks" display="How to fetch data with React Hooks?"/>
+    <hyperlink ref="B389" r:id="rId357" location="is-hooks-cover-all-use-cases-for-classes" display="Is Hooks cover all use cases for classes?"/>
+    <hyperlink ref="B390" r:id="rId358" location="what-is-the-stable-release-for-hooks-support" display="What is the stable release for hooks support?"/>
+    <hyperlink ref="B391" r:id="rId359" location="why-do-we-use-array-destructuring-square-brackets-notation-in-usestate" display="Why do we use array destructuring (square brackets notation) in useState?"/>
+    <hyperlink ref="B392" r:id="rId360" location="what-are-the-sources-used-for-introducing-hooks" display="What are the sources used for introducing hooks?"/>
+    <hyperlink ref="B393" r:id="rId361" location="how-do-you-access-imperative-api-of-web-components" display="How do you access imperative API of web components?"/>
+    <hyperlink ref="B394" r:id="rId362" location="what-is-formik" display="What is formik?"/>
+    <hyperlink ref="B395" r:id="rId363" location="what-are-typical-middleware-choices-for-handling-asynchronous-calls-in-redux" display="What are typical middleware choices for handling asynchronous calls in Redux?"/>
+    <hyperlink ref="B396" r:id="rId364" location="do-browsers-understand-jsx-code" display="Do browsers understand JSX code?"/>
+    <hyperlink ref="B397" r:id="rId365" location="describe-about-data-flow-in-react" display="Describe about data flow in react?"/>
+    <hyperlink ref="B398" r:id="rId366" location="what-is-react-scripts" display="What is react scripts?"/>
+    <hyperlink ref="B399" r:id="rId367" location="what-are-the-features-of-create-react-app" display="What are the features of create react app?"/>
+    <hyperlink ref="B400" r:id="rId368" location="what-is-the-purpose-of-rendertonodestream-method" display="What is the purpose of renderToNodeStream method?"/>
+    <hyperlink ref="B401" r:id="rId369" location="what-is-mobx" display="What is MobX?"/>
+    <hyperlink ref="B402" r:id="rId370" location="what-are-the-differences-between-redux-and-mobx" display="What are the differences between Redux and MobX?"/>
+    <hyperlink ref="B403" r:id="rId371" location="should-i-learn-es6-before-learning-reactjs" display="Should I learn ES6 before learning ReactJS?"/>
+    <hyperlink ref="B404" r:id="rId372" location="what-is-concurrent-rendering" display="What is Concurrent Rendering?"/>
+    <hyperlink ref="B405" r:id="rId373" location="what-is-the-difference-between-async-mode-and-concurrent-mode" display="What is the difference between async mode and concurrent mode?"/>
+    <hyperlink ref="B406" r:id="rId374" location="can-i-use-javascript-urls-in-react169" display="Can I use javascript urls in react16.9?"/>
+    <hyperlink ref="B407" r:id="rId375" location="what-is-the-purpose-of-eslint-plugin-for-hooks" display="What is the purpose of eslint plugin for hooks?"/>
+    <hyperlink ref="B408" r:id="rId376" location="what-is-the-difference-between-imperative-and-declarative-in-react" display="What is the difference between Imperative and Declarative in React?"/>
+    <hyperlink ref="B409" r:id="rId377" location="what-are-the-benefits-of-using-typescript-with-reactjs" display="What are the benefits of using typescript with reactjs?"/>
+    <hyperlink ref="B410" r:id="rId378" location="how-do-you-make-sure-that-user-remains-authenticated-on-page-refresh-while-using-context-api-state-management" display="How do you make sure that user remains authenticated on page refresh while using Context API State Management?"/>
+    <hyperlink ref="B411" r:id="rId379" location="what-are-the-benefits-of-new-jsx-transform" display="What are the benefits of new JSX transform?"/>
+    <hyperlink ref="B412" r:id="rId380" location="how-is-the-new-jsx-transform-different-from-old-transform" display="How is the new JSX transform different from old transform?"/>
+    <hyperlink ref="B413" r:id="rId381" location="how-do-you-get-redux-scaffolding-using-create-react-app" display="How do you get redux scaffolding using create-react-app?"/>
+    <hyperlink ref="B414" r:id="rId382" location="what-are-react-server-components" display="What are React Server components?"/>
+    <hyperlink ref="B415" r:id="rId383" location="what-is-prop-drilling" display="What is prop drilling?"/>
+    <hyperlink ref="B416" r:id="rId384" location="what-is-state-mutation-and-how-to-prevent-it" display="What is state mutation and how to prevent it?"/>
+    <hyperlink ref="B417" r:id="rId385" location="what-is-the-difference-between-usestate-and-useref-hook" display="What is the difference between useState and useRef hook?"/>
+    <hyperlink ref="B418" r:id="rId386" location="what-is-a-wrapper-component" display="What is a wrapper component"/>
+    <hyperlink ref="B419" r:id="rId387" location="what-are-the-differences-between-useEffect-and-useLayoutEffect-hooks" display="What are the differences between useEffect and useLayoutEffect hooks"/>
+    <hyperlink ref="B420" r:id="rId388" location="what-are-the-differences-between-functional-and-class-components" display="What are the differences between Functional and Class Components"/>
+    <hyperlink ref="B421" r:id="rId389" location="what-is-strict-mode-in-react" display="What is strict mode in React?"/>
+    <hyperlink ref="B422" r:id="rId390" location="why-does-strict-mode-render-twice-in-react" display="Why does strict mode render twice in React?"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
